--- a/Ultra Interior Ltd/38390/63gloverst/struct.xlsx
+++ b/Ultra Interior Ltd/38390/63gloverst/struct.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Ultra Interior Ltd\38390\24caitcheon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Ultra Interior Ltd\38390\63gloverst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16166689-0F0D-42BF-BC82-2D9E54F36CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C570A51-5775-4D5B-9C48-6C66BC310DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="1950" windowWidth="26730" windowHeight="17955" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
+    <workbookView xWindow="11370" yWindow="2220" windowWidth="26730" windowHeight="17955" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="struct" sheetId="1" r:id="rId1"/>
@@ -91,12 +91,6 @@
     <t>QA - Metal Ceiling Grid Checklist</t>
   </si>
   <si>
-    <t>Metal Grid Ceilings/Suspended Ceilings</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
     <t>2025</t>
   </si>
   <si>
@@ -128,6 +122,12 @@
   </si>
   <si>
     <t>Nov 25</t>
+  </si>
+  <si>
+    <t>Metal Grid Ceilings</t>
+  </si>
+  <si>
+    <t>House</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G4" sqref="G4:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1088,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1148,7 +1148,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1156,7 +1156,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1172,7 +1172,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1180,7 +1180,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1204,7 +1204,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1212,7 +1212,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1220,7 +1220,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1228,7 +1228,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
         <v>17</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>17</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
         <v>17</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <v>17</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
         <v>17</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1327,7 +1327,7 @@
         <v>17</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
         <v>17</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
